--- a/Excel Gerado.xlsx
+++ b/Excel Gerado.xlsx
@@ -11,12 +11,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Nome</t>
   </si>
   <si>
-    <t>Sbrenome</t>
+    <t>Sobrenome</t>
   </si>
   <si>
     <t>Valor em Conta</t>
@@ -25,13 +25,19 @@
     <t>Profissão</t>
   </si>
   <si>
+    <t>Observações</t>
+  </si>
+  <si>
     <t>Pablo</t>
   </si>
   <si>
     <t>Vinícius</t>
   </si>
   <si>
-    <t>Devenvolvedor Metaverso kkkk</t>
+    <t>Devenvolvedor  Metaverso kkkk</t>
+  </si>
+  <si>
+    <t>Não tenho nada a acrescentar, então acho que nem devia escrever nada aqui né, é enfim, é isso kkkkkkkk</t>
   </si>
   <si>
     <t xml:space="preserve">Ana </t>
@@ -40,13 +46,25 @@
     <t>Pesseti</t>
   </si>
   <si>
-    <t>Desenvolvedora Back-End NodeJS</t>
+    <t>Desenvolvedora  Metaverso kkkk</t>
   </si>
   <si>
     <t>Samuel</t>
   </si>
   <si>
     <t>Pimentel</t>
+  </si>
+  <si>
+    <t>Desenvolvedor  Metaverso kkkk</t>
+  </si>
+  <si>
+    <t>Jonatas</t>
+  </si>
+  <si>
+    <t>Ferreira</t>
+  </si>
+  <si>
+    <t>QA Metaverso</t>
   </si>
 </sst>
 </file>
@@ -327,8 +345,8 @@
     <col customWidth="1" min="1" max="1" width="16.0"/>
     <col customWidth="1" min="2" max="2" width="15.13"/>
     <col customWidth="1" min="3" max="3" width="17.38"/>
-    <col customWidth="1" min="4" max="4" width="28.38"/>
-    <col customWidth="1" min="5" max="5" width="12.63"/>
+    <col customWidth="1" min="4" max="4" width="28.88"/>
+    <col customWidth="1" min="5" max="5" width="79.63"/>
     <col customWidth="1" min="6" max="6" width="13.63"/>
   </cols>
   <sheetData>
@@ -345,53 +363,68 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="5">
         <v>2.0E7</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C3" s="5">
-        <v>1.0E7</v>
+        <v>2.0E7</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" s="5">
-        <v>1.0E7</v>
+        <v>2.0E7</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="B5" s="6"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="5">
+        <v>2.0E7</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="B6" s="6"/>
